--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3036765.404385348</v>
+        <v>3034388.777437983</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8532359.607226014</v>
+        <v>8532359.607226016</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22.94971336712942</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>30.83263800545892</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.30830983498181</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>91.28743837918677</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>38.91752586124625</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>138.422775988213</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959145</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>100.0241316558548</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>211.4496987473621</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>84.41745126697082</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>197.4147107719971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.5971804138453</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505416</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242273</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523328</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>147.6895341487369</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730883</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218655</v>
+        <v>867.5113594131251</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218655</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>559.7504193151151</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>559.7504193151151</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>148.7645145255075</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218655</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>644.1412202705737</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="C4" t="n">
-        <v>475.2050373426669</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>108.1238672093989</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.607838518008</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.923350312121</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.923350312121</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>864.9337994141039</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="Y4" t="n">
-        <v>644.1412202705737</v>
+        <v>445.0465148290272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1918.618935688524</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1549.656418748112</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.390720141362</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>805.6024675431174</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>394.6165627535099</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>2308.758267664336</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1918.618935688524</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429752</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>801.944955774447</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>768.6303371471284</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C7" t="n">
-        <v>768.6303371471284</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1535.411643654442</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1312.433162849178</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1023.314825353015</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>768.6303371471284</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>768.6303371471284</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>768.6303371471284</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>768.6303371471284</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.3110907974335</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656475</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>1330.910930861555</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1330.910930861555</v>
+        <v>1416.181083656474</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.189556406156</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2533734782492</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1437.037321314904</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1147.620151277943</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>919.6306003799259</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.8380212363958</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380899</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683297</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,19 +5586,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
         <v>1520.445529061503</v>
@@ -5607,7 +5607,7 @@
         <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6315,16 +6315,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908938</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958739</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>633.992644467967</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578601</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369644</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261136</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O3" t="n">
-        <v>186.4490126143851</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.124729276157847e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-1.8188291052212e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440054</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556018</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9259388694754307</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846406</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846405</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846406</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="I2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365058</v>
@@ -26341,19 +26341,19 @@
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.609736506</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719582</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.36846171961</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719626</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.368461719611</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719663</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719646</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719638</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.36846171968</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719677</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.36846171969</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642917.9151778684</v>
+        <v>-642917.9151778679</v>
       </c>
       <c r="C6" t="n">
+        <v>471833.8683980517</v>
+      </c>
+      <c r="D6" t="n">
         <v>471833.8683980515</v>
       </c>
-      <c r="D6" t="n">
-        <v>471833.868398052</v>
-      </c>
       <c r="E6" t="n">
-        <v>69959.26982633294</v>
+        <v>69924.53190089724</v>
       </c>
       <c r="F6" t="n">
-        <v>577444.7114508791</v>
+        <v>577409.9735254429</v>
       </c>
       <c r="G6" t="n">
-        <v>577444.7114508791</v>
+        <v>577409.9735254436</v>
       </c>
       <c r="H6" t="n">
-        <v>577444.711450879</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="I6" t="n">
-        <v>577444.7114508792</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="J6" t="n">
-        <v>409839.5336408964</v>
+        <v>409804.7957154608</v>
       </c>
       <c r="K6" t="n">
-        <v>577444.7114508789</v>
+        <v>577409.9735254433</v>
       </c>
       <c r="L6" t="n">
-        <v>577444.7114508789</v>
+        <v>577409.9735254432</v>
       </c>
       <c r="M6" t="n">
-        <v>444837.417721952</v>
+        <v>444802.6797965165</v>
       </c>
       <c r="N6" t="n">
-        <v>577444.7114508789</v>
+        <v>577409.9735254433</v>
       </c>
       <c r="O6" t="n">
-        <v>577444.7114508789</v>
+        <v>577409.9735254436</v>
       </c>
       <c r="P6" t="n">
-        <v>577444.7114508789</v>
+        <v>577409.9735254438</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>342.3231784038782</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>380.7150647674951</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>90.94319932014707</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>194.9397157420138</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>372.6301769117077</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>231.308324690256</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697773</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>94.63832870588261</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>153.8231930236454</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>285.3136494114982</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>54.72293255183087</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.9258179227457</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>526.2989357561996</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899863</v>
+        <v>368.6279838366836</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33731,10 +33731,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33895,10 +33895,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175677</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O3" t="n">
-        <v>521.8736946105082</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676403</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,7 +35264,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>394.9572236728663</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>425.454249006653</v>
+        <v>237.2862717533503</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>379.5262112417391</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>314.9434509778016</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
